--- a/Schedule/tentative_schedule.xlsx
+++ b/Schedule/tentative_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlovele/Documents/GitHub/iu-vlsi/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75167C9A-6D82-1644-A66C-13EB2CB182F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B216D6-F9C3-BE48-BA1F-B904797EE27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="7920" windowWidth="28040" windowHeight="17440" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -59,21 +59,6 @@
     <t>1.0 - Introduction</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/jnb8Zqs7YdoSu1lkUIe30UKPkFFfQrj4g20z-C_JUsG4A0-plar5FuDryRGxk1h_.VsHog4_f8s01GBw8</t>
-  </si>
-  <si>
-    <t>Lab 0</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/YILa-vcoLwICNExG-be6mUoN29LVjLJbNXQNPvIgbqpVozxCXJcJ8QFEnua9EVSD.YGRescF_B16QOEGJ</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
     <t>Tutorial - Layout of NAND2</t>
   </si>
   <si>
@@ -89,21 +74,6 @@
     <t>3.0 - CMOS Transistor Theory</t>
   </si>
   <si>
-    <t>https://iu.zoom.us/rec/share/d0ZI9uRriuLMvON9qcujOuFFerdCgZnD6vthvu2jYytd7UnpaZZcXpkZFFXbLB01.SWT6K2Cm76BQzTH7</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/L_m7aZNuAgNy_RDxVJhoInnw-OanM5XOnb3nzsjW3qB7E5yPKMWzdeVtVBzOd2Su.Nv5txlRAGsbiHYCw?startTime=1706033796000</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/5svDzWgzpy1ZPJe8HglITJ8DrLjl06W-H3FhjIi6xAUK4mH9vjVLtXhcmcFTxfN2.lLo2wkSbNvE9aCbz?startTime=1705601846000</t>
-  </si>
-  <si>
-    <t>Lab 0 Ext (90%)</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/EtBiWhBtNTRXa87v5_fXXC80Kc7WIlU5varX9KghFP-Ido03oVP7yZi17YyaQWfB.oaLF_R88lY8Elp3g</t>
-  </si>
-  <si>
     <t>4.1 - Non-Ideal Transistor Theory Part 1</t>
   </si>
   <si>
@@ -119,15 +89,9 @@
     <t>2.2 - Circuits and Layout Part 2</t>
   </si>
   <si>
-    <t>https://iu.zoom.us/rec/share/Xubuchvq8ycmR_WQz2GwuMwlpqEnvuU-Nph_SxxNFBwEU1oLzMLGcA_NrpX54rg.UX0vVf-SQbjjsG-A</t>
-  </si>
-  <si>
     <t>Tutorial - Gate Optimization and Buffer Design</t>
   </si>
   <si>
-    <t>https://iu.zoom.us/rec/share/TAu5wQAkgguM92x84qoZu5pTdF9lLYijKJ2AXb-5RaLxx2F2u3TnhbwLHJfoRU2F.3L3P76JRY2GSMT1B?startTime=1707243575000</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -137,30 +101,12 @@
     <t>6.2 - Logical Effort Part 2</t>
   </si>
   <si>
-    <t>Lab  1</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/IB0cyZD_eISgemVTiFcyU12VHnYR-nnvtp9ufdfrSWPA2uJRqo_G2Z5NIcCkVlR9.C4kofYzOqIlKnWWL</t>
-  </si>
-  <si>
-    <t>https://iu.zoom.us/rec/share/3GW27LneiHNfTu4meorvl4ZkINGOM493rWDRJw5Tc2lGb7ikOhb-Y3GSUW2vEk-n.Kp6h406uHpjtf0FM</t>
-  </si>
-  <si>
     <t>7.1 - Power</t>
   </si>
   <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/AlkhefvuuaFjUggwISclvIWVO8xhiOW3e-qe3HULi1uUkSNoJaqiXfOybfc9YiNP.EPRb9MWZWfYSJ1NX </t>
-  </si>
-  <si>
     <t>Tutorial - Layout of Multi-Fingered Devices</t>
   </si>
   <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/fETFyhqPcylNzxxX0JwA7Kotn5Bo2PhOku0jZMsI3lBdYxoAPIhtSgt6_3LEV5sQ.qvU3Je7wRbVcvgQg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/IEGXRJ2learsH7J7st0nBsebIo4WTS7k3fPTzB2Xkkc5N7IwjgP45wwzlLrt-jaw.RSswX7nz-QySvWgA </t>
-  </si>
-  <si>
     <t>NO CLASS</t>
   </si>
   <si>
@@ -170,70 +116,52 @@
     <t>8.0 - Scaling</t>
   </si>
   <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/mJF-P_7GrbaXg2dx5hIYmD163PuaiCoFokBc8HRMsgmOwj6hYwzVI86JFZklRPBG.YA3ks7sRqCGGHuFj </t>
-  </si>
-  <si>
     <t>Midterm Review</t>
   </si>
   <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/DM6Tf1R72sKoL9BbUvuZ9yTvmon-PJQ46TXcY80YugZsCn4e_8dNAUgBusLWJfib.WgUjfAsLoV-ddC_b </t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
     <t>9.0 - Sequential Logic Design</t>
   </si>
   <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/v5cxv-GQ_pwxavBo0FtG0BjJqL-mZfcYCYkl6_ef1vOd7zi4mqn4arTQaWOvOo78.6HHfVEIF8FlaUBrv </t>
-  </si>
-  <si>
-    <t>Lab 1 Courtesy 1</t>
-  </si>
-  <si>
     <t>Tutorial – Differential Design and Common Centroid</t>
   </si>
   <si>
-    <t>Lab 1 Courtesy 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iu.zoom.us/rec/share/U37SG1KDLR6LOCtJal2vrFjq4m0MP1SdKa_gzbeZaV00mKLS_9_X-EEt2ZRzO7Yh.GL1KF1mlxHpie12O </t>
-  </si>
-  <si>
     <t>10.0 - Metal Interconnect</t>
   </si>
   <si>
-    <t>https://iu.zoom.us/rec/share/m7k83xFt8-JIJWlsc3GGv-S3z30SK2tkyozSJxAWRcYeWw2RMUN-MNXhRaL4hhBg.fMxoQOqWR7rBrDmZ?startTime=1711473345000</t>
-  </si>
-  <si>
     <t>Final Project Work Day 1</t>
   </si>
   <si>
-    <t>Lab Notebook</t>
-  </si>
-  <si>
     <t>11.1 - SRAM Part 1</t>
   </si>
   <si>
-    <t>https://iu.zoom.us/rec/share/AVOyoBq7ugqQtqP7DRvrtjO0pUq7w5SAfB4FvOXIdyeRNt91uGkWkQJ1It2QrQ9_.nFwcWDkTxE_rxWaj?startTime=1712078074000</t>
-  </si>
-  <si>
     <t>11.2 - SRAM Part 2 + Final Project Work Day 2</t>
   </si>
   <si>
-    <t>Lab Notebook Part 1</t>
-  </si>
-  <si>
     <t>12.1 - Clocking</t>
   </si>
   <si>
-    <t>https://iu.zoom.us/rec/share/r40LjSsDuljX-ADcPdAabvBnSKCeUdVrQodbCKYzzWYz52RUyh2j7RLCF__uBrEB.2FuwHK_E1shbLXcE</t>
-  </si>
-  <si>
     <t>12.2 - Clocking + Final Project Work Day 3</t>
   </si>
   <si>
     <t>Final Project Work Day 4</t>
+  </si>
+  <si>
+    <t>https://iu.mediaspace.kaltura.com/media/t/1_07p5g8sa</t>
+  </si>
+  <si>
+    <t>https://iu.mediaspace.kaltura.com/media/t/1_4lk2ien0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iu.mediaspace.kaltura.com/media/t/1_h1jicei6 </t>
+  </si>
+  <si>
+    <t>Content Video / Lecture</t>
+  </si>
+  <si>
+    <t>Tutorial / Lab</t>
   </si>
 </sst>
 </file>
@@ -646,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0BEA82-A198-C647-847D-48FD57D34800}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,11 +587,11 @@
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="133.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,16 +608,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45300</v>
       </c>
@@ -706,10 +637,13 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45302</v>
       </c>
@@ -717,21 +651,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>2.1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45307</v>
       </c>
@@ -739,19 +674,21 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45309</v>
       </c>
@@ -759,19 +696,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45314</v>
       </c>
@@ -779,18 +716,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45316</v>
       </c>
@@ -798,19 +736,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45321</v>
       </c>
@@ -818,19 +754,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5">
         <v>4.2</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45323</v>
       </c>
@@ -838,16 +769,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45328</v>
       </c>
@@ -855,19 +784,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45330</v>
       </c>
@@ -875,19 +799,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45335</v>
       </c>
@@ -895,19 +814,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45337</v>
       </c>
@@ -915,19 +829,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45342</v>
       </c>
@@ -935,14 +844,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45344</v>
       </c>
@@ -950,16 +859,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45349</v>
       </c>
@@ -967,14 +874,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D16" s="9">
         <v>7</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -984,14 +889,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D17" s="9">
         <v>8</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1001,17 +904,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1021,16 +919,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,17 +933,12 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1061,17 +948,12 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1081,14 +963,12 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1098,16 +978,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1118,14 +992,12 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>11</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1135,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>11</v>
@@ -1146,10 +1018,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1157,13 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1171,53 +1040,30 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>12</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{014C8A09-F8DE-254C-9412-F36F7818C451}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{8274F830-18CF-704D-95A9-594D1E7E44D1}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{4687236C-DAB2-DA42-8493-53DC75D4F612}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{7FE0B1B5-30FD-6F4E-ABAA-60688F77715F}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{E22AF520-BC7E-1744-BF40-84716A8AC000}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{499CD6A5-BCD1-0346-B2EF-ABD92106182B}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{EC97833A-6646-D74E-B116-F85496FD895A}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{68FC2FF9-4BC4-854F-8705-89DD502A2913}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{748BB8C2-FC11-134C-B011-0BF43CCDDD37}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{D24BB517-0929-6B4E-9FF5-73D44EADB8F6}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{3D878DA9-0A96-C845-86BB-9785549C9359}"/>
-    <hyperlink ref="H16" r:id="rId12" display="https://iu.zoom.us/rec/share/IEGXRJ2learsH7J7st0nBsebIo4WTS7k3fPTzB2Xkkc5N7IwjgP45wwzlLrt-jaw.RSswX7nz-QySvWgA" xr:uid="{D1FEE36C-E4A6-154E-BB7A-F36AC10C98C0}"/>
-    <hyperlink ref="H15" r:id="rId13" display="https://iu.zoom.us/rec/share/fETFyhqPcylNzxxX0JwA7Kotn5Bo2PhOku0jZMsI3lBdYxoAPIhtSgt6_3LEV5sQ.qvU3Je7wRbVcvgQg" xr:uid="{F3FC30FB-B06E-184F-8EE0-E911665E1600}"/>
-    <hyperlink ref="H17" r:id="rId14" xr:uid="{BCAC2F3C-6D14-7245-9694-507FA0010E5D}"/>
-    <hyperlink ref="H18" r:id="rId15" xr:uid="{6713B243-A210-C745-B837-DF794C7AC5AB}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{66E5D868-9E08-1C4F-AB99-58A75F28048C}"/>
-    <hyperlink ref="H21" r:id="rId17" xr:uid="{C59E4932-9747-044C-9DA2-A3A79E125198}"/>
-    <hyperlink ref="H22" r:id="rId18" xr:uid="{394D0932-0461-054B-8C63-FDCC6D614792}"/>
-    <hyperlink ref="H24" r:id="rId19" xr:uid="{ADCF3CFB-25AA-9A44-88D1-FBA53C400F7C}"/>
-    <hyperlink ref="H28" r:id="rId20" xr:uid="{30F2F42D-D22E-AD4C-8BE7-C2E4684A8938}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{E9A1865A-F245-004C-BBBE-1D56C5DE00BA}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{A6220BE1-534B-0846-911D-B6813999A82E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule/tentative_schedule.xlsx
+++ b/Schedule/tentative_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlovele/Documents/GitHub/iu-vlsi/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B216D6-F9C3-BE48-BA1F-B904797EE27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D271E73-7CF2-7E42-8C1B-300FC5A41DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="7920" windowWidth="28040" windowHeight="17440" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
+    <workbookView xWindow="51260" yWindow="2540" windowWidth="25300" windowHeight="17480" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -83,12 +83,6 @@
     <t>5.0 - DC and Transient Analysis</t>
   </si>
   <si>
-    <t>2.1 - Circuits and Layout Part 1</t>
-  </si>
-  <si>
-    <t>2.2 - Circuits and Layout Part 2</t>
-  </si>
-  <si>
     <t>Tutorial - Gate Optimization and Buffer Design</t>
   </si>
   <si>
@@ -161,7 +155,19 @@
     <t>Content Video / Lecture</t>
   </si>
   <si>
-    <t>Tutorial / Lab</t>
+    <t>2.0 - Circuits and Layout Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 - Circuits and Layout Part 2 </t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>https://iu.mediaspace.kaltura.com/media/t/1_vuye49w6</t>
+  </si>
+  <si>
+    <t>https://iu.mediaspace.kaltura.com/media/t/1_v5uty58m</t>
   </si>
 </sst>
 </file>
@@ -574,496 +580,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0BEA82-A198-C647-847D-48FD57D34800}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" customWidth="1"/>
+    <col min="10" max="10" width="47.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45300</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
+        <v>45671</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45302</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
+        <v>45673</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5">
         <v>2.1</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+      <c r="I3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45307</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
+        <v>45678</v>
+      </c>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45309</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
+        <v>45680</v>
+      </c>
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>16</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="5"/>
+      <c r="I5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45314</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
+        <v>45685</v>
+      </c>
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45316</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45321</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>4.2</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45323</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45328</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45330</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45335</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9">
         <v>6</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45337</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45342</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45344</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45349</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9">
         <v>7</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45351</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9">
         <v>8</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45356</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45358</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45370</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
         <v>9</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45372</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45377</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22">
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45379</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45384</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24">
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45386</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="4">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="4">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="4">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="4">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{E9A1865A-F245-004C-BBBE-1D56C5DE00BA}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{A6220BE1-534B-0846-911D-B6813999A82E}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{E9A1865A-F245-004C-BBBE-1D56C5DE00BA}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{A6220BE1-534B-0846-911D-B6813999A82E}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{D06EAC3C-3BC2-004C-84F8-2BDF41C0C201}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{16BC14A0-A5C8-0B46-AB32-44C407CC102C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule/tentative_schedule.xlsx
+++ b/Schedule/tentative_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlovele/Documents/GitHub/iu-vlsi/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D271E73-7CF2-7E42-8C1B-300FC5A41DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51B007-7704-0E44-B3FB-409A5838A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51260" yWindow="2540" windowWidth="25300" windowHeight="17480" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>Final Project Work Day 4</t>
   </si>
   <si>
-    <t>https://iu.mediaspace.kaltura.com/media/t/1_07p5g8sa</t>
-  </si>
-  <si>
     <t>https://iu.mediaspace.kaltura.com/media/t/1_4lk2ien0</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>https://iu.mediaspace.kaltura.com/media/t/1_v5uty58m</t>
+  </si>
+  <si>
+    <t>≈</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5">
         <v>2.1</v>
@@ -675,7 +675,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5">
         <v>2.2000000000000002</v>
@@ -700,10 +700,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -748,16 +748,16 @@
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45316</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>45687</v>
+      </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
@@ -767,8 +767,8 @@
       <c r="E7" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -785,6 +785,9 @@
       </c>
       <c r="E8" s="5">
         <v>4.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
     </row>

--- a/Schedule/tentative_schedule.xlsx
+++ b/Schedule/tentative_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlovele/Documents/GitHub/iu-vlsi/Schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlovele/Library/CloudStorage/Dropbox/Mac (3)/Documents/GitHub/iu-vlsi/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51B007-7704-0E44-B3FB-409A5838A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329DF738-A6D4-F44B-A62A-770711512CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51260" yWindow="2540" windowWidth="25300" windowHeight="17480" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
+    <workbookView xWindow="43500" yWindow="2540" windowWidth="25300" windowHeight="17480" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>≈</t>
+  </si>
+  <si>
+    <t>https://iu.mediaspace.kaltura.com/media/t/1_23ieu5r5</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +752,9 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1113,6 +1118,7 @@
     <hyperlink ref="I3" r:id="rId2" xr:uid="{A6220BE1-534B-0846-911D-B6813999A82E}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{D06EAC3C-3BC2-004C-84F8-2BDF41C0C201}"/>
     <hyperlink ref="I5" r:id="rId4" xr:uid="{16BC14A0-A5C8-0B46-AB32-44C407CC102C}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{36602518-8676-A948-9F50-F502E88028CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule/tentative_schedule.xlsx
+++ b/Schedule/tentative_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlovele/Library/CloudStorage/Dropbox/Mac (3)/Documents/GitHub/iu-vlsi/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329DF738-A6D4-F44B-A62A-770711512CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208CCC7-17F0-404D-ABEC-A86C3A755FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43500" yWindow="2540" windowWidth="25300" windowHeight="17480" xr2:uid="{B06FCACC-7A90-6240-A88B-5F618B4AAD7E}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,7 +781,9 @@
       <c r="A8" s="3">
         <v>45321</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>45692</v>
+      </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -790,9 +792,6 @@
       </c>
       <c r="E8" s="5">
         <v>4.2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -800,7 +799,9 @@
       <c r="A9" s="3">
         <v>45323</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>45694</v>
+      </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -809,6 +810,9 @@
       </c>
       <c r="E9" s="5">
         <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
     </row>
